--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H2">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I2">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J2">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>5.52765713381484</v>
+        <v>0.018029104501</v>
       </c>
       <c r="R2">
-        <v>5.52765713381484</v>
+        <v>0.07211641800400001</v>
       </c>
       <c r="S2">
-        <v>0.002076695900395882</v>
+        <v>5.688819374685838E-06</v>
       </c>
       <c r="T2">
-        <v>0.002076695900395882</v>
+        <v>2.68990893043673E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H3">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I3">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J3">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>807.0487361582482</v>
+        <v>0.001615383244333333</v>
       </c>
       <c r="R3">
-        <v>807.0487361582482</v>
+        <v>0.009692299466</v>
       </c>
       <c r="S3">
-        <v>0.3032016569093615</v>
+        <v>5.097104793749807E-07</v>
       </c>
       <c r="T3">
-        <v>0.3032016569093615</v>
+        <v>3.615182729765429E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H4">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I4">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J4">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>1322.315692606236</v>
+        <v>2.806751089415667</v>
       </c>
       <c r="R4">
-        <v>1322.315692606236</v>
+        <v>16.840506536494</v>
       </c>
       <c r="S4">
-        <v>0.4967832684603148</v>
+        <v>0.0008856291213189649</v>
       </c>
       <c r="T4">
-        <v>0.4967832684603148</v>
+        <v>0.0006281430800276401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H5">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I5">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J5">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>10.71581455013254</v>
+        <v>4.027087009191001</v>
       </c>
       <c r="R5">
-        <v>10.71581455013254</v>
+        <v>24.162522055146</v>
       </c>
       <c r="S5">
-        <v>0.004025844513678226</v>
+        <v>0.001270688214168414</v>
       </c>
       <c r="T5">
-        <v>0.004025844513678226</v>
+        <v>0.0009012508615500933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,72 +776,72 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H6">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I6">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J6">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>25.77906122903041</v>
+        <v>0.03487920029066667</v>
       </c>
       <c r="R6">
-        <v>25.77906122903041</v>
+        <v>0.209275201744</v>
       </c>
       <c r="S6">
-        <v>0.009684983976825495</v>
+        <v>1.100561985073007E-05</v>
       </c>
       <c r="T6">
-        <v>0.009684983976825495</v>
+        <v>7.80586792398522E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.168125640760176</v>
+        <v>0.056827</v>
       </c>
       <c r="H7">
-        <v>0.168125640760176</v>
+        <v>0.113654</v>
       </c>
       <c r="I7">
-        <v>0.007303476751138085</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J7">
-        <v>0.007303476751138085</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>0.04948820639496705</v>
+        <v>0.07875912492850001</v>
       </c>
       <c r="R7">
-        <v>0.04948820639496705</v>
+        <v>0.3150364997140001</v>
       </c>
       <c r="S7">
-        <v>1.85923172965409E-05</v>
+        <v>2.485128619681038E-05</v>
       </c>
       <c r="T7">
-        <v>1.85923172965409E-05</v>
+        <v>1.175071526635189E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H8">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I8">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J8">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>7.225374776136496</v>
+        <v>6.696928903298001</v>
       </c>
       <c r="R8">
-        <v>7.225374776136496</v>
+        <v>40.181573419788</v>
       </c>
       <c r="S8">
-        <v>0.0027145146330867</v>
+        <v>0.002113117647848906</v>
       </c>
       <c r="T8">
-        <v>0.0027145146330867</v>
+        <v>0.00149875404481254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H9">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I9">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J9">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>11.83847520402181</v>
+        <v>0.6000357221446666</v>
       </c>
       <c r="R9">
-        <v>11.83847520402181</v>
+        <v>5.400321499302</v>
       </c>
       <c r="S9">
-        <v>0.004447619005298802</v>
+        <v>0.0001893324674806148</v>
       </c>
       <c r="T9">
-        <v>0.004447619005298802</v>
+        <v>0.0002014294862425945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H10">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I10">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J10">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>0.09593692758240342</v>
+        <v>1042.570500050535</v>
       </c>
       <c r="R10">
-        <v>0.09593692758240342</v>
+        <v>9383.134500454817</v>
       </c>
       <c r="S10">
-        <v>3.604272468134371E-05</v>
+        <v>0.3289678231014979</v>
       </c>
       <c r="T10">
-        <v>3.604272468134371E-05</v>
+        <v>0.3499865632103697</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H11">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I11">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J11">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>0.2307957009428878</v>
+        <v>1495.865498280918</v>
       </c>
       <c r="R11">
-        <v>0.2307957009428878</v>
+        <v>13462.78948452826</v>
       </c>
       <c r="S11">
-        <v>8.670807077469936E-05</v>
+        <v>0.4719984083553665</v>
       </c>
       <c r="T11">
-        <v>8.670807077469936E-05</v>
+        <v>0.5021558012076202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.07278262595734</v>
+        <v>21.108446</v>
       </c>
       <c r="H12">
-        <v>4.07278262595734</v>
+        <v>63.325338</v>
       </c>
       <c r="I12">
-        <v>0.176924073488286</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J12">
-        <v>0.176924073488286</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>1.198833838098032</v>
+        <v>12.95591384128533</v>
       </c>
       <c r="R12">
-        <v>1.198833838098032</v>
+        <v>116.603224571568</v>
       </c>
       <c r="S12">
-        <v>0.0004503921383987631</v>
+        <v>0.004088048503627919</v>
       </c>
       <c r="T12">
-        <v>0.0004503921383987631</v>
+        <v>0.004349246174087338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.07278262595734</v>
+        <v>21.108446</v>
       </c>
       <c r="H13">
-        <v>4.07278262595734</v>
+        <v>63.325338</v>
       </c>
       <c r="I13">
-        <v>0.176924073488286</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J13">
-        <v>0.176924073488286</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>175.0320814911036</v>
+        <v>29.255155745693</v>
       </c>
       <c r="R13">
-        <v>175.0320814911036</v>
+        <v>175.530934474158</v>
       </c>
       <c r="S13">
-        <v>0.06575813174929608</v>
+        <v>0.009231035119149652</v>
       </c>
       <c r="T13">
-        <v>0.06575813174929608</v>
+        <v>0.006547222411736438</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H14">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I14">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J14">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>286.7827650247839</v>
+        <v>0.01380210379766667</v>
       </c>
       <c r="R14">
-        <v>286.7827650247839</v>
+        <v>0.08281262278600002</v>
       </c>
       <c r="S14">
-        <v>0.1077419561332571</v>
+        <v>4.355051327770389E-06</v>
       </c>
       <c r="T14">
-        <v>0.1077419561332571</v>
+        <v>3.088872405900611E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H15">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I15">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J15">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>2.324037250229429</v>
+        <v>0.001236649729888889</v>
       </c>
       <c r="R15">
-        <v>2.324037250229429</v>
+        <v>0.011129847569</v>
       </c>
       <c r="S15">
-        <v>0.0008731219236436166</v>
+        <v>3.902066762496004E-07</v>
       </c>
       <c r="T15">
-        <v>0.0008731219236436166</v>
+        <v>4.151381502141727E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,1363 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H16">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I16">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J16">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3727573016189</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N16">
-        <v>1.3727573016189</v>
+        <v>148.173461</v>
       </c>
       <c r="O16">
-        <v>0.01187216359129066</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P16">
-        <v>0.01187216359129066</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q16">
-        <v>5.590942087689537</v>
+        <v>2.148696285396777</v>
       </c>
       <c r="R16">
-        <v>5.590942087689537</v>
+        <v>19.338266568571</v>
       </c>
       <c r="S16">
-        <v>0.002100471543690462</v>
+        <v>0.0006779895838976745</v>
       </c>
       <c r="T16">
-        <v>0.002100471543690462</v>
+        <v>0.0007213083702948188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.04350366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.130511</v>
+      </c>
+      <c r="I17">
+        <v>0.001682954867502814</v>
+      </c>
+      <c r="J17">
+        <v>0.001782192679129202</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N17">
+        <v>212.597199</v>
+      </c>
+      <c r="O17">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P17">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q17">
+        <v>3.082919226521001</v>
+      </c>
+      <c r="R17">
+        <v>27.746273038689</v>
+      </c>
+      <c r="S17">
+        <v>0.0009727699246211246</v>
+      </c>
+      <c r="T17">
+        <v>0.001034923110420788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.04350366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.130511</v>
+      </c>
+      <c r="I18">
+        <v>0.001682954867502814</v>
+      </c>
+      <c r="J18">
+        <v>0.001782192679129202</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.841336</v>
+      </c>
+      <c r="O18">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P18">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q18">
+        <v>0.02670162252177778</v>
+      </c>
+      <c r="R18">
+        <v>0.2403146026960001</v>
+      </c>
+      <c r="S18">
+        <v>8.425305179689423E-06</v>
+      </c>
+      <c r="T18">
+        <v>8.963623177602505E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.04350366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.130511</v>
+      </c>
+      <c r="I19">
+        <v>0.001682954867502814</v>
+      </c>
+      <c r="J19">
+        <v>0.001782192679129202</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.3859455</v>
+      </c>
+      <c r="N19">
+        <v>2.771891</v>
+      </c>
+      <c r="O19">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P19">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q19">
+        <v>0.06029371105016668</v>
+      </c>
+      <c r="R19">
+        <v>0.3617622663010001</v>
+      </c>
+      <c r="S19">
+        <v>1.902479580030573E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.349356467987797E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.759416</v>
+      </c>
+      <c r="I20">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J20">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.317263</v>
+      </c>
+      <c r="N20">
+        <v>0.634526</v>
+      </c>
+      <c r="O20">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P20">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q20">
+        <v>0.08031153280266667</v>
+      </c>
+      <c r="R20">
+        <v>0.481869196816</v>
+      </c>
+      <c r="S20">
+        <v>2.534112572220025E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.797349745997976E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.759416</v>
+      </c>
+      <c r="I21">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J21">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P21">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q21">
+        <v>0.007195804118222222</v>
+      </c>
+      <c r="R21">
+        <v>0.064762237064</v>
+      </c>
+      <c r="S21">
+        <v>2.270530401657841E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.415601393622347E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.759416</v>
+      </c>
+      <c r="I22">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J22">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N22">
+        <v>148.173461</v>
+      </c>
+      <c r="O22">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P22">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q22">
+        <v>12.50281078430844</v>
+      </c>
+      <c r="R22">
+        <v>112.525297058776</v>
+      </c>
+      <c r="S22">
+        <v>0.003945078482620134</v>
+      </c>
+      <c r="T22">
+        <v>0.004197141369967359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.759416</v>
+      </c>
+      <c r="I23">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J23">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N23">
+        <v>212.597199</v>
+      </c>
+      <c r="O23">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P23">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q23">
+        <v>17.938857163976</v>
+      </c>
+      <c r="R23">
+        <v>161.449714475784</v>
+      </c>
+      <c r="S23">
+        <v>0.005660343151734918</v>
+      </c>
+      <c r="T23">
+        <v>0.006021999439306365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.759416</v>
+      </c>
+      <c r="I24">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J24">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.841336</v>
+      </c>
+      <c r="O24">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P24">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q24">
+        <v>0.1553711133084445</v>
+      </c>
+      <c r="R24">
+        <v>1.398340019776</v>
+      </c>
+      <c r="S24">
+        <v>4.902507496179649E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.215743392543297E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.759416</v>
+      </c>
+      <c r="I25">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J25">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.3859455</v>
+      </c>
+      <c r="N25">
+        <v>2.771891</v>
+      </c>
+      <c r="O25">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P25">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q25">
+        <v>0.3508363959426667</v>
+      </c>
+      <c r="R25">
+        <v>2.105018375656</v>
+      </c>
+      <c r="S25">
+        <v>0.0001107012767313481</v>
+      </c>
+      <c r="T25">
+        <v>7.851620870987278E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.379024</v>
+      </c>
+      <c r="I26">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J26">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.317263</v>
+      </c>
+      <c r="N26">
+        <v>0.634526</v>
+      </c>
+      <c r="O26">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P26">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q26">
+        <v>0.04008343043733333</v>
+      </c>
+      <c r="R26">
+        <v>0.240500582624</v>
+      </c>
+      <c r="S26">
+        <v>1.264773830908386E-05</v>
+      </c>
+      <c r="T26">
+        <v>8.970560142624554E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.379024</v>
+      </c>
+      <c r="I27">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J27">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P27">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q27">
+        <v>0.003591420855111111</v>
+      </c>
+      <c r="R27">
+        <v>0.032322787696</v>
+      </c>
+      <c r="S27">
+        <v>1.133220152008862E-06</v>
+      </c>
+      <c r="T27">
+        <v>1.205624983693149E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.379024</v>
+      </c>
+      <c r="I28">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J28">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N28">
+        <v>148.173461</v>
+      </c>
+      <c r="O28">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P28">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q28">
+        <v>6.240144209118221</v>
+      </c>
+      <c r="R28">
+        <v>56.16129788206399</v>
+      </c>
+      <c r="S28">
+        <v>0.001968985940244364</v>
+      </c>
+      <c r="T28">
+        <v>0.002094790352863923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.379024</v>
+      </c>
+      <c r="I29">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J29">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N29">
+        <v>212.597199</v>
+      </c>
+      <c r="O29">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P29">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q29">
+        <v>8.953271194864001</v>
+      </c>
+      <c r="R29">
+        <v>80.57944075377601</v>
+      </c>
+      <c r="S29">
+        <v>0.002825073349446385</v>
+      </c>
+      <c r="T29">
+        <v>0.003005575752267078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.379024</v>
+      </c>
+      <c r="I30">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J30">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.841336</v>
+      </c>
+      <c r="O30">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P30">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q30">
+        <v>0.07754561511822222</v>
+      </c>
+      <c r="R30">
+        <v>0.6979105360640001</v>
+      </c>
+      <c r="S30">
+        <v>2.446838098264976E-05</v>
+      </c>
+      <c r="T30">
+        <v>2.603173917346133E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.379024</v>
+      </c>
+      <c r="I31">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J31">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.3859455</v>
+      </c>
+      <c r="N31">
+        <v>2.771891</v>
+      </c>
+      <c r="O31">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P31">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q31">
+        <v>0.1751022023973333</v>
+      </c>
+      <c r="R31">
+        <v>1.050613214384</v>
+      </c>
+      <c r="S31">
+        <v>5.525093059906885E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.918738542518307E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H32">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J32">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>1.3519583740025</v>
+      </c>
+      <c r="R32">
+        <v>5.407833496010001</v>
+      </c>
+      <c r="S32">
+        <v>0.0004265906269148086</v>
+      </c>
+      <c r="T32">
+        <v>0.0002017096802343308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H33">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J33">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>0.1211336316941667</v>
+      </c>
+      <c r="R33">
+        <v>0.726801790165</v>
+      </c>
+      <c r="S33">
+        <v>3.822194002312272E-05</v>
+      </c>
+      <c r="T33">
+        <v>2.710936954624948E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H34">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J34">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>210.4713874649558</v>
+      </c>
+      <c r="R34">
+        <v>1262.828324789735</v>
+      </c>
+      <c r="S34">
+        <v>0.06641115795636104</v>
+      </c>
+      <c r="T34">
+        <v>0.04710291057817029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H35">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J35">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>301.9813881832276</v>
+      </c>
+      <c r="R35">
+        <v>1811.888329099365</v>
+      </c>
+      <c r="S35">
+        <v>0.09528579590827622</v>
+      </c>
+      <c r="T35">
+        <v>0.06758259398197142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H36">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J36">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>2.615505773393334</v>
+      </c>
+      <c r="R36">
+        <v>15.69303464036</v>
+      </c>
+      <c r="S36">
+        <v>0.0008252844680919888</v>
+      </c>
+      <c r="T36">
+        <v>0.0005853429107143944</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H37">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J37">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>5.905953813196251</v>
+      </c>
+      <c r="R37">
+        <v>23.623815252785</v>
+      </c>
+      <c r="S37">
+        <v>0.001863537064563967</v>
+      </c>
+      <c r="T37">
+        <v>0.0008811573477752204</v>
       </c>
     </row>
   </sheetData>
